--- a/public/template/imb_induk_perum_contoh.xlsx
+++ b/public/template/imb_induk_perum_contoh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reksasyahputra/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F493EFE-307A-6D43-A158-79E6E52BB6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E706C225-3628-4EF6-AE8D-A56EDAE8314F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D0D77E50-39A1-F148-BE60-51D7C03AE053}"/>
+    <workbookView xWindow="2890" yWindow="2140" windowWidth="14400" windowHeight="7360" xr2:uid="{D0D77E50-39A1-F148-BE60-51D7C03AE053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>No.</t>
   </si>
@@ -113,6 +109,12 @@
   </si>
   <si>
     <t>25-01-2002</t>
+  </si>
+  <si>
+    <t>Kabupaten / Kota</t>
+  </si>
+  <si>
+    <t>KOTA BOGOR</t>
   </si>
 </sst>
 </file>
@@ -231,7 +233,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,6 +259,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -265,6 +270,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -627,19 +641,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7FB3A2-45A9-704E-9F0B-ED98C8C31A61}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="9" max="9" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,150 +679,160 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+    <row r="2" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+      <c r="A2" s="19">
         <v>10</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>21</v>
       </c>
-      <c r="N2" s="7">
+      <c r="O2" s="7">
         <v>20.63</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>54</v>
       </c>
-      <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="5" t="s">
+    <row r="3" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="6">
+      <c r="N3" s="6">
         <v>27</v>
       </c>
-      <c r="N3" s="7">
+      <c r="O3" s="7">
         <v>28.75</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>14</v>
       </c>
-      <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="5" t="s">
+    <row r="4" spans="1:18" ht="28" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="6">
+      <c r="N4" s="6">
         <v>36</v>
       </c>
-      <c r="N4" s="7">
+      <c r="O4" s="7">
         <v>36.75</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>1</v>
       </c>
-      <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="I2:I4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>